--- a/www/IndicatorsPerCountry/Norway_GDPperCapita_TerritorialRef_1946_2012_CCode_578.xlsx
+++ b/www/IndicatorsPerCountry/Norway_GDPperCapita_TerritorialRef_1946_2012_CCode_578.xlsx
@@ -600,13 +600,13 @@
     <t>Bolt, Jutta and Jan Luiten van Zanden (2015). GDP per Capita. http://hdl.handle.net/10622/8FCYOX, accessed via the Clio Infra website.</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.xml</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.ris</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.bib</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.xml</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.ris</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.bib</t>
   </si>
 </sst>
 </file>

--- a/www/IndicatorsPerCountry/Norway_GDPperCapita_TerritorialRef_1946_2012_CCode_578.xlsx
+++ b/www/IndicatorsPerCountry/Norway_GDPperCapita_TerritorialRef_1946_2012_CCode_578.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="206">
   <si>
     <t>Country Code</t>
   </si>
@@ -36,541 +36,565 @@
     <t>GDP per Capita</t>
   </si>
   <si>
-    <t>801</t>
+    <t>1384</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>835</t>
-  </si>
-  <si>
-    <t>767</t>
-  </si>
-  <si>
-    <t>778</t>
-  </si>
-  <si>
-    <t>863</t>
-  </si>
-  <si>
-    <t>901</t>
-  </si>
-  <si>
-    <t>881</t>
-  </si>
-  <si>
-    <t>856</t>
-  </si>
-  <si>
-    <t>857</t>
-  </si>
-  <si>
-    <t>858</t>
-  </si>
-  <si>
-    <t>935</t>
-  </si>
-  <si>
-    <t>951</t>
-  </si>
-  <si>
-    <t>955</t>
-  </si>
-  <si>
-    <t>933</t>
-  </si>
-  <si>
-    <t>949</t>
-  </si>
-  <si>
-    <t>990</t>
-  </si>
-  <si>
-    <t>1006</t>
-  </si>
-  <si>
-    <t>966</t>
-  </si>
-  <si>
-    <t>912</t>
-  </si>
-  <si>
-    <t>956</t>
-  </si>
-  <si>
-    <t>1014</t>
-  </si>
-  <si>
-    <t>1003</t>
-  </si>
-  <si>
-    <t>1048</t>
-  </si>
-  <si>
-    <t>1076</t>
-  </si>
-  <si>
-    <t>1128</t>
-  </si>
-  <si>
-    <t>1105</t>
-  </si>
-  <si>
-    <t>1042</t>
-  </si>
-  <si>
-    <t>1079</t>
-  </si>
-  <si>
-    <t>1100</t>
-  </si>
-  <si>
-    <t>1137</t>
-  </si>
-  <si>
-    <t>1104</t>
-  </si>
-  <si>
-    <t>1198</t>
-  </si>
-  <si>
-    <t>1199</t>
-  </si>
-  <si>
-    <t>1242</t>
-  </si>
-  <si>
-    <t>1293</t>
-  </si>
-  <si>
-    <t>1304</t>
-  </si>
-  <si>
-    <t>1329</t>
-  </si>
-  <si>
-    <t>1321</t>
-  </si>
-  <si>
-    <t>1368</t>
-  </si>
-  <si>
-    <t>1360</t>
-  </si>
-  <si>
-    <t>1376</t>
-  </si>
-  <si>
-    <t>1457</t>
+    <t>1441</t>
+  </si>
+  <si>
+    <t>1355</t>
+  </si>
+  <si>
+    <t>1393</t>
+  </si>
+  <si>
+    <t>1508</t>
+  </si>
+  <si>
+    <t>1527</t>
+  </si>
+  <si>
+    <t>1503</t>
+  </si>
+  <si>
+    <t>1466</t>
+  </si>
+  <si>
+    <t>1463</t>
   </si>
   <si>
     <t>1482</t>
   </si>
   <si>
-    <t>1524</t>
-  </si>
-  <si>
-    <t>1551</t>
-  </si>
-  <si>
-    <t>1572</t>
-  </si>
-  <si>
-    <t>1565</t>
-  </si>
-  <si>
-    <t>1490</t>
-  </si>
-  <si>
-    <t>1483</t>
-  </si>
-  <si>
-    <t>1517</t>
-  </si>
-  <si>
-    <t>1528</t>
-  </si>
-  <si>
-    <t>1523</t>
-  </si>
-  <si>
-    <t>1542</t>
-  </si>
-  <si>
-    <t>1544</t>
-  </si>
-  <si>
-    <t>1552</t>
+    <t>1495</t>
+  </si>
+  <si>
+    <t>1607</t>
+  </si>
+  <si>
+    <t>1592</t>
+  </si>
+  <si>
+    <t>1580</t>
+  </si>
+  <si>
+    <t>1521</t>
+  </si>
+  <si>
+    <t>1567</t>
+  </si>
+  <si>
+    <t>1631</t>
   </si>
   <si>
     <t>1619</t>
   </si>
   <si>
-    <t>1675</t>
-  </si>
-  <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1734</t>
-  </si>
-  <si>
-    <t>1769</t>
-  </si>
-  <si>
-    <t>1764</t>
+    <t>1670</t>
+  </si>
+  <si>
+    <t>1533</t>
+  </si>
+  <si>
+    <t>1559</t>
+  </si>
+  <si>
+    <t>1623</t>
+  </si>
+  <si>
+    <t>1663</t>
+  </si>
+  <si>
+    <t>1686</t>
+  </si>
+  <si>
+    <t>1776</t>
+  </si>
+  <si>
+    <t>1859</t>
+  </si>
+  <si>
+    <t>1897</t>
+  </si>
+  <si>
+    <t>1860</t>
   </si>
   <si>
     <t>1763</t>
   </si>
   <si>
-    <t>1788</t>
-  </si>
-  <si>
-    <t>1856</t>
-  </si>
-  <si>
-    <t>1844</t>
-  </si>
-  <si>
-    <t>1875</t>
-  </si>
-  <si>
-    <t>1877</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1914</t>
-  </si>
-  <si>
-    <t>1891</t>
-  </si>
-  <si>
-    <t>1888</t>
-  </si>
-  <si>
-    <t>1892</t>
-  </si>
-  <si>
-    <t>1962</t>
-  </si>
-  <si>
-    <t>2038</t>
-  </si>
-  <si>
-    <t>2088</t>
-  </si>
-  <si>
-    <t>2115</t>
-  </si>
-  <si>
-    <t>2186</t>
-  </si>
-  <si>
-    <t>2255</t>
-  </si>
-  <si>
-    <t>2344</t>
-  </si>
-  <si>
-    <t>2447</t>
-  </si>
-  <si>
-    <t>2472</t>
-  </si>
-  <si>
-    <t>2554</t>
-  </si>
-  <si>
-    <t>2628</t>
-  </si>
-  <si>
-    <t>2361</t>
-  </si>
-  <si>
-    <t>2243</t>
-  </si>
-  <si>
-    <t>2602</t>
-  </si>
-  <si>
-    <t>2739</t>
-  </si>
-  <si>
-    <t>2443</t>
-  </si>
-  <si>
-    <t>2678</t>
-  </si>
-  <si>
-    <t>2732</t>
-  </si>
-  <si>
-    <t>2715</t>
-  </si>
-  <si>
-    <t>2863</t>
-  </si>
-  <si>
-    <t>2889</t>
-  </si>
-  <si>
-    <t>2986</t>
-  </si>
-  <si>
-    <t>3106</t>
-  </si>
-  <si>
-    <t>3387</t>
-  </si>
-  <si>
-    <t>3627</t>
-  </si>
-  <si>
-    <t>3323</t>
-  </si>
-  <si>
-    <t>3467</t>
-  </si>
-  <si>
-    <t>3534</t>
-  </si>
-  <si>
-    <t>3638</t>
-  </si>
-  <si>
-    <t>3800</t>
-  </si>
-  <si>
-    <t>4035</t>
-  </si>
-  <si>
-    <t>4193</t>
-  </si>
-  <si>
-    <t>4262</t>
-  </si>
-  <si>
-    <t>4441</t>
-  </si>
-  <si>
-    <t>4038</t>
-  </si>
-  <si>
-    <t>4112</t>
-  </si>
-  <si>
-    <t>3928</t>
-  </si>
-  <si>
-    <t>3820</t>
-  </si>
-  <si>
-    <t>3588</t>
-  </si>
-  <si>
-    <t>3980</t>
-  </si>
-  <si>
-    <t>4335</t>
-  </si>
-  <si>
-    <t>4864</t>
-  </si>
-  <si>
-    <t>5144</t>
-  </si>
-  <si>
-    <t>5227</t>
-  </si>
-  <si>
-    <t>5430</t>
-  </si>
-  <si>
-    <t>5670</t>
-  </si>
-  <si>
-    <t>5814</t>
-  </si>
-  <si>
-    <t>5985</t>
-  </si>
-  <si>
-    <t>6226</t>
-  </si>
-  <si>
-    <t>6301</t>
-  </si>
-  <si>
-    <t>6575</t>
-  </si>
-  <si>
-    <t>6711</t>
-  </si>
-  <si>
-    <t>6652</t>
-  </si>
-  <si>
-    <t>6874</t>
-  </si>
-  <si>
-    <t>7204</t>
-  </si>
-  <si>
-    <t>7595</t>
-  </si>
-  <si>
-    <t>7746</t>
-  </si>
-  <si>
-    <t>7982</t>
-  </si>
-  <si>
-    <t>8316</t>
-  </si>
-  <si>
-    <t>8690</t>
-  </si>
-  <si>
-    <t>8945</t>
-  </si>
-  <si>
-    <t>9423</t>
-  </si>
-  <si>
-    <t>9551</t>
-  </si>
-  <si>
-    <t>9899</t>
-  </si>
-  <si>
-    <t>10027</t>
-  </si>
-  <si>
-    <t>10472</t>
-  </si>
-  <si>
-    <t>10922</t>
-  </si>
-  <si>
-    <t>11324</t>
-  </si>
-  <si>
-    <t>11726</t>
-  </si>
-  <si>
-    <t>12271</t>
-  </si>
-  <si>
-    <t>12930</t>
-  </si>
-  <si>
-    <t>13425</t>
-  </si>
-  <si>
-    <t>13840</t>
-  </si>
-  <si>
-    <t>14411</t>
-  </si>
-  <si>
-    <t>15076</t>
-  </si>
-  <si>
-    <t>15169</t>
-  </si>
-  <si>
-    <t>15145</t>
-  </si>
-  <si>
-    <t>15636</t>
-  </si>
-  <si>
-    <t>16513</t>
-  </si>
-  <si>
-    <t>17320</t>
-  </si>
-  <si>
-    <t>17882</t>
-  </si>
-  <si>
-    <t>18164</t>
-  </si>
-  <si>
-    <t>18059</t>
-  </si>
-  <si>
-    <t>18157</t>
-  </si>
-  <si>
-    <t>18466.0102169</t>
-  </si>
-  <si>
-    <t>18951.3624749</t>
-  </si>
-  <si>
-    <t>19506.3177148</t>
-  </si>
-  <si>
-    <t>19930.8411952</t>
-  </si>
-  <si>
-    <t>20818.4862013</t>
-  </si>
-  <si>
-    <t>21578.2546856</t>
-  </si>
-  <si>
-    <t>22563.8854399</t>
-  </si>
-  <si>
-    <t>23649.0204668</t>
-  </si>
-  <si>
-    <t>24135.2803696</t>
-  </si>
-  <si>
-    <t>24455.0564819</t>
-  </si>
-  <si>
-    <t>25087.5990562</t>
-  </si>
-  <si>
-    <t>25457.663005</t>
-  </si>
-  <si>
-    <t>25723.8925917</t>
-  </si>
-  <si>
-    <t>25863.9043772</t>
-  </si>
-  <si>
-    <t>26775.7620405</t>
-  </si>
-  <si>
-    <t>27358.4488705</t>
-  </si>
-  <si>
-    <t>27921.1745416</t>
-  </si>
-  <si>
-    <t>28555.9548221</t>
-  </si>
-  <si>
-    <t>28464.3080143</t>
-  </si>
-  <si>
-    <t>27893.1990714</t>
-  </si>
-  <si>
-    <t>27987.2014473</t>
+    <t>1865</t>
+  </si>
+  <si>
+    <t>1817</t>
+  </si>
+  <si>
+    <t>1887</t>
+  </si>
+  <si>
+    <t>1879</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>1959</t>
+  </si>
+  <si>
+    <t>1986</t>
+  </si>
+  <si>
+    <t>2077</t>
+  </si>
+  <si>
+    <t>1975</t>
+  </si>
+  <si>
+    <t>1991</t>
+  </si>
+  <si>
+    <t>2079</t>
+  </si>
+  <si>
+    <t>2177</t>
+  </si>
+  <si>
+    <t>2276</t>
+  </si>
+  <si>
+    <t>2342</t>
+  </si>
+  <si>
+    <t>2421</t>
+  </si>
+  <si>
+    <t>2348</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2477</t>
+  </si>
+  <si>
+    <t>2450</t>
+  </si>
+  <si>
+    <t>2337</t>
+  </si>
+  <si>
+    <t>2429</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2439</t>
+  </si>
+  <si>
+    <t>2528</t>
+  </si>
+  <si>
+    <t>2582</t>
+  </si>
+  <si>
+    <t>2518</t>
+  </si>
+  <si>
+    <t>2499</t>
+  </si>
+  <si>
+    <t>2570</t>
+  </si>
+  <si>
+    <t>2692</t>
+  </si>
+  <si>
+    <t>2775</t>
+  </si>
+  <si>
+    <t>2769</t>
+  </si>
+  <si>
+    <t>2762</t>
+  </si>
+  <si>
+    <t>2748</t>
+  </si>
+  <si>
+    <t>2820</t>
+  </si>
+  <si>
+    <t>2935</t>
+  </si>
+  <si>
+    <t>3052</t>
+  </si>
+  <si>
+    <t>3102</t>
+  </si>
+  <si>
+    <t>3218</t>
+  </si>
+  <si>
+    <t>3266</t>
+  </si>
+  <si>
+    <t>3244</t>
+  </si>
+  <si>
+    <t>3249</t>
+  </si>
+  <si>
+    <t>3271</t>
+  </si>
+  <si>
+    <t>3268</t>
+  </si>
+  <si>
+    <t>3290</t>
+  </si>
+  <si>
+    <t>3288</t>
+  </si>
+  <si>
+    <t>3322</t>
+  </si>
+  <si>
+    <t>3496</t>
+  </si>
+  <si>
+    <t>3537</t>
+  </si>
+  <si>
+    <t>3612</t>
+  </si>
+  <si>
+    <t>3642</t>
+  </si>
+  <si>
+    <t>3826</t>
+  </si>
+  <si>
+    <t>3947</t>
+  </si>
+  <si>
+    <t>4050</t>
+  </si>
+  <si>
+    <t>4415</t>
+  </si>
+  <si>
+    <t>4336</t>
+  </si>
+  <si>
+    <t>4407</t>
+  </si>
+  <si>
+    <t>4803</t>
+  </si>
+  <si>
+    <t>4286</t>
+  </si>
+  <si>
+    <t>4023</t>
+  </si>
+  <si>
+    <t>4605</t>
+  </si>
+  <si>
+    <t>4739</t>
+  </si>
+  <si>
+    <t>4222</t>
+  </si>
+  <si>
+    <t>4570</t>
+  </si>
+  <si>
+    <t>4870</t>
+  </si>
+  <si>
+    <t>4787</t>
+  </si>
+  <si>
+    <t>4733</t>
+  </si>
+  <si>
+    <t>4750</t>
+  </si>
+  <si>
+    <t>4992</t>
+  </si>
+  <si>
+    <t>5241</t>
+  </si>
+  <si>
+    <t>5581</t>
+  </si>
+  <si>
+    <t>5781</t>
+  </si>
+  <si>
+    <t>5297</t>
+  </si>
+  <si>
+    <t>5526</t>
+  </si>
+  <si>
+    <t>5633</t>
+  </si>
+  <si>
+    <t>5799</t>
+  </si>
+  <si>
+    <t>6057</t>
+  </si>
+  <si>
+    <t>6432</t>
+  </si>
+  <si>
+    <t>6684</t>
+  </si>
+  <si>
+    <t>6794</t>
+  </si>
+  <si>
+    <t>7079</t>
+  </si>
+  <si>
+    <t>6437</t>
+  </si>
+  <si>
+    <t>6554</t>
+  </si>
+  <si>
+    <t>6261</t>
+  </si>
+  <si>
+    <t>6089</t>
+  </si>
+  <si>
+    <t>5719</t>
+  </si>
+  <si>
+    <t>6344</t>
+  </si>
+  <si>
+    <t>6910</t>
+  </si>
+  <si>
+    <t>7753</t>
+  </si>
+  <si>
+    <t>8199</t>
+  </si>
+  <si>
+    <t>8332</t>
+  </si>
+  <si>
+    <t>8655</t>
+  </si>
+  <si>
+    <t>9038</t>
+  </si>
+  <si>
+    <t>9267</t>
+  </si>
+  <si>
+    <t>9540</t>
+  </si>
+  <si>
+    <t>9923</t>
+  </si>
+  <si>
+    <t>10044</t>
+  </si>
+  <si>
+    <t>10480</t>
+  </si>
+  <si>
+    <t>10697</t>
+  </si>
+  <si>
+    <t>10603</t>
+  </si>
+  <si>
+    <t>10957</t>
+  </si>
+  <si>
+    <t>11483</t>
+  </si>
+  <si>
+    <t>12106</t>
+  </si>
+  <si>
+    <t>12347</t>
+  </si>
+  <si>
+    <t>12723</t>
+  </si>
+  <si>
+    <t>13256</t>
+  </si>
+  <si>
+    <t>13852</t>
+  </si>
+  <si>
+    <t>14258</t>
+  </si>
+  <si>
+    <t>15020</t>
+  </si>
+  <si>
+    <t>15224</t>
+  </si>
+  <si>
+    <t>15779</t>
+  </si>
+  <si>
+    <t>15983</t>
+  </si>
+  <si>
+    <t>16692</t>
+  </si>
+  <si>
+    <t>17409</t>
+  </si>
+  <si>
+    <t>18050</t>
+  </si>
+  <si>
+    <t>18691</t>
+  </si>
+  <si>
+    <t>19560</t>
+  </si>
+  <si>
+    <t>20610</t>
+  </si>
+  <si>
+    <t>21399</t>
+  </si>
+  <si>
+    <t>22061</t>
+  </si>
+  <si>
+    <t>22971</t>
+  </si>
+  <si>
+    <t>24031</t>
+  </si>
+  <si>
+    <t>24179</t>
+  </si>
+  <si>
+    <t>24141</t>
+  </si>
+  <si>
+    <t>24924</t>
+  </si>
+  <si>
+    <t>26321</t>
+  </si>
+  <si>
+    <t>27608</t>
+  </si>
+  <si>
+    <t>28504</t>
+  </si>
+  <si>
+    <t>28953</t>
+  </si>
+  <si>
+    <t>28786</t>
+  </si>
+  <si>
+    <t>28942</t>
+  </si>
+  <si>
+    <t>29434</t>
+  </si>
+  <si>
+    <t>31127.6751427511</t>
+  </si>
+  <si>
+    <t>33041.2054394645</t>
+  </si>
+  <si>
+    <t>34819.5167754369</t>
+  </si>
+  <si>
+    <t>37492.8376838159</t>
+  </si>
+  <si>
+    <t>40043.7982939742</t>
+  </si>
+  <si>
+    <t>43133.1434703702</t>
+  </si>
+  <si>
+    <t>46556.4792320828</t>
+  </si>
+  <si>
+    <t>48956.7293270778</t>
+  </si>
+  <si>
+    <t>51129.1828761108</t>
+  </si>
+  <si>
+    <t>54039.9607277985</t>
+  </si>
+  <si>
+    <t>56578.3770899479</t>
+  </si>
+  <si>
+    <t>58840.4142077243</t>
+  </si>
+  <si>
+    <t>60852.2595201344</t>
+  </si>
+  <si>
+    <t>64824.1444301464</t>
+  </si>
+  <si>
+    <t>68108.5555436812</t>
+  </si>
+  <si>
+    <t>71310.5289506898</t>
+  </si>
+  <si>
+    <t>74879.8086232955</t>
+  </si>
+  <si>
+    <t>76522.0634426551</t>
+  </si>
+  <si>
+    <t>76625.6338761654</t>
+  </si>
+  <si>
+    <t>78476.1453149578</t>
+  </si>
+  <si>
+    <t>80623</t>
+  </si>
+  <si>
+    <t>81759</t>
+  </si>
+  <si>
+    <t>81583</t>
+  </si>
+  <si>
+    <t>82216</t>
+  </si>
+  <si>
+    <t>82713</t>
+  </si>
+  <si>
+    <t>82814</t>
   </si>
   <si>
     <t>Description</t>
@@ -1011,7 +1035,7 @@
         <v>1839.0</v>
       </c>
       <c r="E21" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22">
@@ -1028,7 +1052,7 @@
         <v>1840.0</v>
       </c>
       <c r="E22" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23">
@@ -1045,7 +1069,7 @@
         <v>1841.0</v>
       </c>
       <c r="E23" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24">
@@ -1062,7 +1086,7 @@
         <v>1842.0</v>
       </c>
       <c r="E24" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25">
@@ -1079,7 +1103,7 @@
         <v>1843.0</v>
       </c>
       <c r="E25" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26">
@@ -1096,7 +1120,7 @@
         <v>1844.0</v>
       </c>
       <c r="E26" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27">
@@ -1113,7 +1137,7 @@
         <v>1845.0</v>
       </c>
       <c r="E27" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28">
@@ -1130,7 +1154,7 @@
         <v>1846.0</v>
       </c>
       <c r="E28" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29">
@@ -1147,7 +1171,7 @@
         <v>1847.0</v>
       </c>
       <c r="E29" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30">
@@ -1164,7 +1188,7 @@
         <v>1848.0</v>
       </c>
       <c r="E30" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31">
@@ -1181,7 +1205,7 @@
         <v>1849.0</v>
       </c>
       <c r="E31" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32">
@@ -1198,7 +1222,7 @@
         <v>1850.0</v>
       </c>
       <c r="E32" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33">
@@ -1215,7 +1239,7 @@
         <v>1851.0</v>
       </c>
       <c r="E33" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34">
@@ -1232,7 +1256,7 @@
         <v>1852.0</v>
       </c>
       <c r="E34" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="35">
@@ -1249,7 +1273,7 @@
         <v>1853.0</v>
       </c>
       <c r="E35" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36">
@@ -1266,7 +1290,7 @@
         <v>1854.0</v>
       </c>
       <c r="E36" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="37">
@@ -1283,7 +1307,7 @@
         <v>1855.0</v>
       </c>
       <c r="E37" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="38">
@@ -1300,7 +1324,7 @@
         <v>1856.0</v>
       </c>
       <c r="E38" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="39">
@@ -1317,7 +1341,7 @@
         <v>1857.0</v>
       </c>
       <c r="E39" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="40">
@@ -1334,7 +1358,7 @@
         <v>1858.0</v>
       </c>
       <c r="E40" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="41">
@@ -1351,7 +1375,7 @@
         <v>1859.0</v>
       </c>
       <c r="E41" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="42">
@@ -1368,7 +1392,7 @@
         <v>1860.0</v>
       </c>
       <c r="E42" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="43">
@@ -1385,7 +1409,7 @@
         <v>1861.0</v>
       </c>
       <c r="E43" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="44">
@@ -1402,7 +1426,7 @@
         <v>1862.0</v>
       </c>
       <c r="E44" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="45">
@@ -1419,7 +1443,7 @@
         <v>1863.0</v>
       </c>
       <c r="E45" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="46">
@@ -1436,7 +1460,7 @@
         <v>1864.0</v>
       </c>
       <c r="E46" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="47">
@@ -1453,7 +1477,7 @@
         <v>1865.0</v>
       </c>
       <c r="E47" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="48">
@@ -1470,7 +1494,7 @@
         <v>1866.0</v>
       </c>
       <c r="E48" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="49">
@@ -1487,7 +1511,7 @@
         <v>1867.0</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="50">
@@ -1521,7 +1545,7 @@
         <v>1869.0</v>
       </c>
       <c r="E51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="52">
@@ -1538,7 +1562,7 @@
         <v>1870.0</v>
       </c>
       <c r="E52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="53">
@@ -1555,7 +1579,7 @@
         <v>1871.0</v>
       </c>
       <c r="E53" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="54">
@@ -1572,7 +1596,7 @@
         <v>1872.0</v>
       </c>
       <c r="E54" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="55">
@@ -1589,7 +1613,7 @@
         <v>1873.0</v>
       </c>
       <c r="E55" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="56">
@@ -1606,7 +1630,7 @@
         <v>1874.0</v>
       </c>
       <c r="E56" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="57">
@@ -1623,7 +1647,7 @@
         <v>1875.0</v>
       </c>
       <c r="E57" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="58">
@@ -1640,7 +1664,7 @@
         <v>1876.0</v>
       </c>
       <c r="E58" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="59">
@@ -1657,7 +1681,7 @@
         <v>1877.0</v>
       </c>
       <c r="E59" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="60">
@@ -1674,7 +1698,7 @@
         <v>1878.0</v>
       </c>
       <c r="E60" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="61">
@@ -1691,7 +1715,7 @@
         <v>1879.0</v>
       </c>
       <c r="E61" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="62">
@@ -1708,7 +1732,7 @@
         <v>1880.0</v>
       </c>
       <c r="E62" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="63">
@@ -1725,7 +1749,7 @@
         <v>1881.0</v>
       </c>
       <c r="E63" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="64">
@@ -1742,7 +1766,7 @@
         <v>1882.0</v>
       </c>
       <c r="E64" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="65">
@@ -1759,7 +1783,7 @@
         <v>1883.0</v>
       </c>
       <c r="E65" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="66">
@@ -1776,7 +1800,7 @@
         <v>1884.0</v>
       </c>
       <c r="E66" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="67">
@@ -1793,7 +1817,7 @@
         <v>1885.0</v>
       </c>
       <c r="E67" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="68">
@@ -1827,7 +1851,7 @@
         <v>1887.0</v>
       </c>
       <c r="E69" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="70">
@@ -1844,7 +1868,7 @@
         <v>1888.0</v>
       </c>
       <c r="E70" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="71">
@@ -1861,7 +1885,7 @@
         <v>1889.0</v>
       </c>
       <c r="E71" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="72">
@@ -1878,7 +1902,7 @@
         <v>1890.0</v>
       </c>
       <c r="E72" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="73">
@@ -1895,7 +1919,7 @@
         <v>1891.0</v>
       </c>
       <c r="E73" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="74">
@@ -1912,7 +1936,7 @@
         <v>1892.0</v>
       </c>
       <c r="E74" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="75">
@@ -1929,7 +1953,7 @@
         <v>1893.0</v>
       </c>
       <c r="E75" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="76">
@@ -1946,7 +1970,7 @@
         <v>1894.0</v>
       </c>
       <c r="E76" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="77">
@@ -1963,7 +1987,7 @@
         <v>1895.0</v>
       </c>
       <c r="E77" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="78">
@@ -1980,7 +2004,7 @@
         <v>1896.0</v>
       </c>
       <c r="E78" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="79">
@@ -1997,7 +2021,7 @@
         <v>1897.0</v>
       </c>
       <c r="E79" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="80">
@@ -2014,7 +2038,7 @@
         <v>1898.0</v>
       </c>
       <c r="E80" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="81">
@@ -2031,7 +2055,7 @@
         <v>1899.0</v>
       </c>
       <c r="E81" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="82">
@@ -2048,7 +2072,7 @@
         <v>1900.0</v>
       </c>
       <c r="E82" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="83">
@@ -2065,7 +2089,7 @@
         <v>1901.0</v>
       </c>
       <c r="E83" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="84">
@@ -2082,7 +2106,7 @@
         <v>1902.0</v>
       </c>
       <c r="E84" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="85">
@@ -2099,7 +2123,7 @@
         <v>1903.0</v>
       </c>
       <c r="E85" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="86">
@@ -2116,7 +2140,7 @@
         <v>1904.0</v>
       </c>
       <c r="E86" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="87">
@@ -2133,7 +2157,7 @@
         <v>1905.0</v>
       </c>
       <c r="E87" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="88">
@@ -2150,7 +2174,7 @@
         <v>1906.0</v>
       </c>
       <c r="E88" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="89">
@@ -2167,7 +2191,7 @@
         <v>1907.0</v>
       </c>
       <c r="E89" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="90">
@@ -2184,7 +2208,7 @@
         <v>1908.0</v>
       </c>
       <c r="E90" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="91">
@@ -2201,7 +2225,7 @@
         <v>1909.0</v>
       </c>
       <c r="E91" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="92">
@@ -2218,7 +2242,7 @@
         <v>1910.0</v>
       </c>
       <c r="E92" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="93">
@@ -2235,7 +2259,7 @@
         <v>1911.0</v>
       </c>
       <c r="E93" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="94">
@@ -2252,7 +2276,7 @@
         <v>1912.0</v>
       </c>
       <c r="E94" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="95">
@@ -2269,7 +2293,7 @@
         <v>1913.0</v>
       </c>
       <c r="E95" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="96">
@@ -2286,7 +2310,7 @@
         <v>1914.0</v>
       </c>
       <c r="E96" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="97">
@@ -2303,7 +2327,7 @@
         <v>1915.0</v>
       </c>
       <c r="E97" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="98">
@@ -2320,7 +2344,7 @@
         <v>1916.0</v>
       </c>
       <c r="E98" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="99">
@@ -2337,7 +2361,7 @@
         <v>1917.0</v>
       </c>
       <c r="E99" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="100">
@@ -2354,7 +2378,7 @@
         <v>1918.0</v>
       </c>
       <c r="E100" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="101">
@@ -2371,7 +2395,7 @@
         <v>1919.0</v>
       </c>
       <c r="E101" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="102">
@@ -2388,7 +2412,7 @@
         <v>1920.0</v>
       </c>
       <c r="E102" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="103">
@@ -2405,7 +2429,7 @@
         <v>1921.0</v>
       </c>
       <c r="E103" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="104">
@@ -2422,7 +2446,7 @@
         <v>1922.0</v>
       </c>
       <c r="E104" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="105">
@@ -2439,7 +2463,7 @@
         <v>1923.0</v>
       </c>
       <c r="E105" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="106">
@@ -2456,7 +2480,7 @@
         <v>1924.0</v>
       </c>
       <c r="E106" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="107">
@@ -2473,7 +2497,7 @@
         <v>1925.0</v>
       </c>
       <c r="E107" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="108">
@@ -2490,7 +2514,7 @@
         <v>1926.0</v>
       </c>
       <c r="E108" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="109">
@@ -2507,7 +2531,7 @@
         <v>1927.0</v>
       </c>
       <c r="E109" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="110">
@@ -2524,7 +2548,7 @@
         <v>1928.0</v>
       </c>
       <c r="E110" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="111">
@@ -2541,7 +2565,7 @@
         <v>1929.0</v>
       </c>
       <c r="E111" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="112">
@@ -2558,7 +2582,7 @@
         <v>1930.0</v>
       </c>
       <c r="E112" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="113">
@@ -2575,7 +2599,7 @@
         <v>1931.0</v>
       </c>
       <c r="E113" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="114">
@@ -2592,7 +2616,7 @@
         <v>1932.0</v>
       </c>
       <c r="E114" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="115">
@@ -2609,7 +2633,7 @@
         <v>1933.0</v>
       </c>
       <c r="E115" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="116">
@@ -2626,7 +2650,7 @@
         <v>1934.0</v>
       </c>
       <c r="E116" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="117">
@@ -2643,7 +2667,7 @@
         <v>1935.0</v>
       </c>
       <c r="E117" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="118">
@@ -2660,7 +2684,7 @@
         <v>1936.0</v>
       </c>
       <c r="E118" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="119">
@@ -2677,7 +2701,7 @@
         <v>1937.0</v>
       </c>
       <c r="E119" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="120">
@@ -2694,7 +2718,7 @@
         <v>1938.0</v>
       </c>
       <c r="E120" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="121">
@@ -2711,7 +2735,7 @@
         <v>1939.0</v>
       </c>
       <c r="E121" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="122">
@@ -2728,7 +2752,7 @@
         <v>1940.0</v>
       </c>
       <c r="E122" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="123">
@@ -2745,7 +2769,7 @@
         <v>1941.0</v>
       </c>
       <c r="E123" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="124">
@@ -2762,7 +2786,7 @@
         <v>1942.0</v>
       </c>
       <c r="E124" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="125">
@@ -2779,7 +2803,7 @@
         <v>1943.0</v>
       </c>
       <c r="E125" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="126">
@@ -2796,7 +2820,7 @@
         <v>1944.0</v>
       </c>
       <c r="E126" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="127">
@@ -2813,7 +2837,7 @@
         <v>1945.0</v>
       </c>
       <c r="E127" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="128">
@@ -2830,7 +2854,7 @@
         <v>1946.0</v>
       </c>
       <c r="E128" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="129">
@@ -2847,7 +2871,7 @@
         <v>1947.0</v>
       </c>
       <c r="E129" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="130">
@@ -2864,7 +2888,7 @@
         <v>1948.0</v>
       </c>
       <c r="E130" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="131">
@@ -2881,7 +2905,7 @@
         <v>1949.0</v>
       </c>
       <c r="E131" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="132">
@@ -2898,7 +2922,7 @@
         <v>1950.0</v>
       </c>
       <c r="E132" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="133">
@@ -2915,7 +2939,7 @@
         <v>1951.0</v>
       </c>
       <c r="E133" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="134">
@@ -2932,7 +2956,7 @@
         <v>1952.0</v>
       </c>
       <c r="E134" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="135">
@@ -2949,7 +2973,7 @@
         <v>1953.0</v>
       </c>
       <c r="E135" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="136">
@@ -2966,7 +2990,7 @@
         <v>1954.0</v>
       </c>
       <c r="E136" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="137">
@@ -2983,7 +3007,7 @@
         <v>1955.0</v>
       </c>
       <c r="E137" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="138">
@@ -3000,7 +3024,7 @@
         <v>1956.0</v>
       </c>
       <c r="E138" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="139">
@@ -3017,7 +3041,7 @@
         <v>1957.0</v>
       </c>
       <c r="E139" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="140">
@@ -3034,7 +3058,7 @@
         <v>1958.0</v>
       </c>
       <c r="E140" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="141">
@@ -3051,7 +3075,7 @@
         <v>1959.0</v>
       </c>
       <c r="E141" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="142">
@@ -3068,7 +3092,7 @@
         <v>1960.0</v>
       </c>
       <c r="E142" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="143">
@@ -3085,7 +3109,7 @@
         <v>1961.0</v>
       </c>
       <c r="E143" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="144">
@@ -3102,7 +3126,7 @@
         <v>1962.0</v>
       </c>
       <c r="E144" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="145">
@@ -3119,7 +3143,7 @@
         <v>1963.0</v>
       </c>
       <c r="E145" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="146">
@@ -3136,7 +3160,7 @@
         <v>1964.0</v>
       </c>
       <c r="E146" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="147">
@@ -3153,7 +3177,7 @@
         <v>1965.0</v>
       </c>
       <c r="E147" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="148">
@@ -3170,7 +3194,7 @@
         <v>1966.0</v>
       </c>
       <c r="E148" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="149">
@@ -3187,7 +3211,7 @@
         <v>1967.0</v>
       </c>
       <c r="E149" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="150">
@@ -3204,7 +3228,7 @@
         <v>1968.0</v>
       </c>
       <c r="E150" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="151">
@@ -3221,7 +3245,7 @@
         <v>1969.0</v>
       </c>
       <c r="E151" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="152">
@@ -3238,7 +3262,7 @@
         <v>1970.0</v>
       </c>
       <c r="E152" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="153">
@@ -3255,7 +3279,7 @@
         <v>1971.0</v>
       </c>
       <c r="E153" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="154">
@@ -3272,7 +3296,7 @@
         <v>1972.0</v>
       </c>
       <c r="E154" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="155">
@@ -3289,7 +3313,7 @@
         <v>1973.0</v>
       </c>
       <c r="E155" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="156">
@@ -3306,7 +3330,7 @@
         <v>1974.0</v>
       </c>
       <c r="E156" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="157">
@@ -3323,7 +3347,7 @@
         <v>1975.0</v>
       </c>
       <c r="E157" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="158">
@@ -3340,7 +3364,7 @@
         <v>1976.0</v>
       </c>
       <c r="E158" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="159">
@@ -3357,7 +3381,7 @@
         <v>1977.0</v>
       </c>
       <c r="E159" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="160">
@@ -3374,7 +3398,7 @@
         <v>1978.0</v>
       </c>
       <c r="E160" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="161">
@@ -3391,7 +3415,7 @@
         <v>1979.0</v>
       </c>
       <c r="E161" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="162">
@@ -3408,7 +3432,7 @@
         <v>1980.0</v>
       </c>
       <c r="E162" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="163">
@@ -3425,7 +3449,7 @@
         <v>1981.0</v>
       </c>
       <c r="E163" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="164">
@@ -3442,7 +3466,7 @@
         <v>1982.0</v>
       </c>
       <c r="E164" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="165">
@@ -3459,7 +3483,7 @@
         <v>1983.0</v>
       </c>
       <c r="E165" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="166">
@@ -3476,7 +3500,7 @@
         <v>1984.0</v>
       </c>
       <c r="E166" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="167">
@@ -3493,7 +3517,7 @@
         <v>1985.0</v>
       </c>
       <c r="E167" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="168">
@@ -3510,7 +3534,7 @@
         <v>1986.0</v>
       </c>
       <c r="E168" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="169">
@@ -3527,7 +3551,7 @@
         <v>1987.0</v>
       </c>
       <c r="E169" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="170">
@@ -3544,7 +3568,7 @@
         <v>1988.0</v>
       </c>
       <c r="E170" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="171">
@@ -3561,7 +3585,7 @@
         <v>1989.0</v>
       </c>
       <c r="E171" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="172">
@@ -3578,7 +3602,7 @@
         <v>1990.0</v>
       </c>
       <c r="E172" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="173">
@@ -3595,7 +3619,7 @@
         <v>1991.0</v>
       </c>
       <c r="E173" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="174">
@@ -3612,7 +3636,7 @@
         <v>1992.0</v>
       </c>
       <c r="E174" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="175">
@@ -3629,7 +3653,7 @@
         <v>1993.0</v>
       </c>
       <c r="E175" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="176">
@@ -3646,7 +3670,7 @@
         <v>1994.0</v>
       </c>
       <c r="E176" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="177">
@@ -3663,7 +3687,7 @@
         <v>1995.0</v>
       </c>
       <c r="E177" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="178">
@@ -3680,7 +3704,7 @@
         <v>1996.0</v>
       </c>
       <c r="E178" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="179">
@@ -3697,7 +3721,7 @@
         <v>1997.0</v>
       </c>
       <c r="E179" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="180">
@@ -3714,7 +3738,7 @@
         <v>1998.0</v>
       </c>
       <c r="E180" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="181">
@@ -3731,7 +3755,7 @@
         <v>1999.0</v>
       </c>
       <c r="E181" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="182">
@@ -3748,7 +3772,7 @@
         <v>2000.0</v>
       </c>
       <c r="E182" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="183">
@@ -3765,7 +3789,7 @@
         <v>2001.0</v>
       </c>
       <c r="E183" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="184">
@@ -3782,7 +3806,7 @@
         <v>2002.0</v>
       </c>
       <c r="E184" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="185">
@@ -3799,7 +3823,7 @@
         <v>2003.0</v>
       </c>
       <c r="E185" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="186">
@@ -3816,7 +3840,7 @@
         <v>2004.0</v>
       </c>
       <c r="E186" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="187">
@@ -3833,7 +3857,7 @@
         <v>2005.0</v>
       </c>
       <c r="E187" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="188">
@@ -3850,7 +3874,7 @@
         <v>2006.0</v>
       </c>
       <c r="E188" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="189">
@@ -3867,7 +3891,7 @@
         <v>2007.0</v>
       </c>
       <c r="E189" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="190">
@@ -3884,7 +3908,7 @@
         <v>2008.0</v>
       </c>
       <c r="E190" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="191">
@@ -3901,7 +3925,7 @@
         <v>2009.0</v>
       </c>
       <c r="E191" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="192">
@@ -3918,7 +3942,109 @@
         <v>2010.0</v>
       </c>
       <c r="E192" t="s">
-        <v>185</v>
+        <v>187</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>578.0</v>
+      </c>
+      <c r="B193" t="s">
+        <v>5</v>
+      </c>
+      <c r="C193" t="s">
+        <v>6</v>
+      </c>
+      <c r="D193" t="n">
+        <v>2011.0</v>
+      </c>
+      <c r="E193" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>578.0</v>
+      </c>
+      <c r="B194" t="s">
+        <v>5</v>
+      </c>
+      <c r="C194" t="s">
+        <v>6</v>
+      </c>
+      <c r="D194" t="n">
+        <v>2012.0</v>
+      </c>
+      <c r="E194" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>578.0</v>
+      </c>
+      <c r="B195" t="s">
+        <v>5</v>
+      </c>
+      <c r="C195" t="s">
+        <v>6</v>
+      </c>
+      <c r="D195" t="n">
+        <v>2013.0</v>
+      </c>
+      <c r="E195" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>578.0</v>
+      </c>
+      <c r="B196" t="s">
+        <v>5</v>
+      </c>
+      <c r="C196" t="s">
+        <v>6</v>
+      </c>
+      <c r="D196" t="n">
+        <v>2014.0</v>
+      </c>
+      <c r="E196" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>578.0</v>
+      </c>
+      <c r="B197" t="s">
+        <v>5</v>
+      </c>
+      <c r="C197" t="s">
+        <v>6</v>
+      </c>
+      <c r="D197" t="n">
+        <v>2015.0</v>
+      </c>
+      <c r="E197" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>578.0</v>
+      </c>
+      <c r="B198" t="s">
+        <v>5</v>
+      </c>
+      <c r="C198" t="s">
+        <v>6</v>
+      </c>
+      <c r="D198" t="n">
+        <v>2016.0</v>
+      </c>
+      <c r="E198" t="s">
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -3936,50 +4062,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="B1" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="B2" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="B3" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="B4" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="B5" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="B6" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>
